--- a/src/main/resources/static/export/eventList.xlsx
+++ b/src/main/resources/static/export/eventList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B302FB57-C619-45F4-B48C-A5EF3E2527EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674B69D-57BD-4BF5-A22E-183B7E8CD8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经营管理部" sheetId="23" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -829,18 +827,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -862,7 +854,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -923,71 +915,65 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1284,43 +1270,43 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.08203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="2" width="14.08203125" style="6"/>
-    <col min="3" max="3" width="24.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.5" style="6" customWidth="1"/>
-    <col min="5" max="5" width="54.58203125" style="6" customWidth="1"/>
-    <col min="6" max="7" width="14.08203125" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.25" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.08203125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.08203125" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.25" style="11" customWidth="1"/>
+    <col min="1" max="2" width="14.109375" style="6"/>
+    <col min="3" max="3" width="24.77734375" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.44140625" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.5546875" style="6" customWidth="1"/>
+    <col min="6" max="7" width="14.109375" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.21875" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.21875" style="11" customWidth="1"/>
     <col min="12" max="12" width="8" style="11" customWidth="1"/>
-    <col min="13" max="13" width="14.58203125" style="11" customWidth="1"/>
-    <col min="14" max="14" width="14.5" style="11" customWidth="1"/>
-    <col min="15" max="15" width="14.83203125" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.08203125" style="6" customWidth="1"/>
-    <col min="17" max="21" width="14.08203125" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="14.08203125" style="6"/>
+    <col min="13" max="13" width="14.5546875" style="11" customWidth="1"/>
+    <col min="14" max="14" width="14.44140625" style="11" customWidth="1"/>
+    <col min="15" max="15" width="14.77734375" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.109375" style="6" customWidth="1"/>
+    <col min="17" max="21" width="14.109375" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="14.109375" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1329,71 +1315,71 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1">
-      <c r="A2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="26" t="s">
+      <c r="A2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="28" t="s">
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="26" t="s">
+      <c r="R2" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="26" t="s">
+      <c r="S2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="26" t="s">
+      <c r="T2" s="29" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="51.75" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1406,20 +1392,20 @@
       <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-    </row>
-    <row r="4" spans="1:20" ht="20.149999999999999" customHeight="1">
-      <c r="A4" s="38"/>
-      <c r="B4" s="37" t="s">
+      <c r="N3" s="36"/>
+      <c r="O3" s="30"/>
+      <c r="P3" s="30"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="30"/>
+      <c r="T3" s="30"/>
+    </row>
+    <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="34"/>
+      <c r="B4" s="33" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="33" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1473,10 +1459,10 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" ht="20.149999999999999" customHeight="1">
-      <c r="A5" s="38"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
+    <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="34"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1528,10 +1514,10 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" ht="20.149999999999999" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
+    <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="34"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1583,10 +1569,10 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" ht="20.149999999999999" customHeight="1">
-      <c r="A7" s="38"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
+    <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="34"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1638,10 +1624,10 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" ht="20.149999999999999" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37" t="s">
+    <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="33" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1690,9 +1676,9 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A9" s="38"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1739,9 +1725,9 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A10" s="38"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1782,9 +1768,9 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A11" s="38"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1825,9 +1811,9 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A12" s="38"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1874,9 +1860,9 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A13" s="38"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1929,9 +1915,9 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A14" s="38"/>
-      <c r="B14" s="37"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="19" t="s">
         <v>100</v>
       </c>
@@ -1978,9 +1964,9 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
@@ -2027,9 +2013,9 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A16" s="38"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="19" t="s">
         <v>109</v>
       </c>
@@ -2070,9 +2056,9 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A17" s="38"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="18" t="s">
         <v>110</v>
       </c>
@@ -2117,9 +2103,9 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="46.5" customHeight="1">
-      <c r="A18" s="38"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="18" t="s">
         <v>111</v>
       </c>
@@ -2164,9 +2150,9 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A19" s="38"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="18" t="s">
         <v>101</v>
       </c>
@@ -2211,9 +2197,9 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="18" t="s">
         <v>114</v>
       </c>
@@ -2264,9 +2250,9 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="54" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="37"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2313,9 +2299,9 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="37" t="s">
+      <c r="A22" s="34"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -2366,9 +2352,9 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="19" t="s">
         <v>32</v>
       </c>
@@ -2419,9 +2405,9 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
@@ -2472,9 +2458,9 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2523,9 +2509,9 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="37"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
       <c r="D26" s="18" t="s">
         <v>113</v>
       </c>
@@ -2570,9 +2556,9 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="18" t="s">
         <v>104</v>
       </c>
@@ -2621,9 +2607,9 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="33" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="37"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="18" t="s">
         <v>105</v>
       </c>
@@ -2672,9 +2658,9 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="18" t="s">
         <v>106</v>
       </c>
@@ -2723,9 +2709,9 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="37"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="18" t="s">
         <v>69</v>
       </c>
@@ -2774,9 +2760,9 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="37"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
@@ -2827,9 +2813,9 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="24" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="37" t="s">
+      <c r="A32" s="34"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2878,9 +2864,9 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A33" s="38"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="10" t="s">
         <v>115</v>
       </c>
@@ -2921,9 +2907,9 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A34" s="38"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="37"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
@@ -2970,9 +2956,9 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="38"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="10" t="s">
         <v>116</v>
       </c>
@@ -3013,9 +2999,9 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A36" s="38"/>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
@@ -3056,9 +3042,9 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A37" s="38"/>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="10" t="s">
         <v>120</v>
       </c>
@@ -3105,9 +3091,9 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A38" s="38"/>
-      <c r="B38" s="37"/>
-      <c r="C38" s="37"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
@@ -3154,9 +3140,9 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="27" customHeight="1">
-      <c r="A39" s="38"/>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="10" t="s">
         <v>121</v>
       </c>
@@ -3203,22 +3189,22 @@
       <c r="T39" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="41.25" customHeight="1">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="31"/>
-      <c r="C41" s="31"/>
-      <c r="D41" s="31"/>
-      <c r="E41" s="31"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
-      <c r="I41" s="31"/>
-      <c r="J41" s="31"/>
-      <c r="K41" s="31"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="31"/>
-      <c r="N41" s="31"/>
+      <c r="B41" s="25"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+      <c r="I41" s="25"/>
+      <c r="J41" s="25"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="25"/>
     </row>
     <row r="42" spans="1:20" ht="39.75" hidden="1" customHeight="1">
       <c r="C42" s="12" t="s">
@@ -3285,14 +3271,14 @@
         <v>110</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="35"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="32"/>
+      <c r="H49" s="32"/>
+      <c r="I49" s="32"/>
+      <c r="J49" s="32"/>
+      <c r="K49" s="32"/>
+      <c r="L49" s="32"/>
+      <c r="M49" s="32"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="3:14" ht="26.25" hidden="1" customHeight="1">
@@ -3303,14 +3289,14 @@
         <v>148</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="35"/>
-      <c r="G50" s="36"/>
-      <c r="H50" s="36"/>
-      <c r="I50" s="36"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="36"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="36"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="32"/>
+      <c r="H50" s="32"/>
+      <c r="I50" s="32"/>
+      <c r="J50" s="32"/>
+      <c r="K50" s="32"/>
+      <c r="L50" s="32"/>
+      <c r="M50" s="32"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="3:14" ht="29.25" hidden="1" customHeight="1">
@@ -3321,14 +3307,14 @@
         <v>119</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="36"/>
-      <c r="H51" s="36"/>
-      <c r="I51" s="36"/>
-      <c r="J51" s="36"/>
-      <c r="K51" s="36"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="36"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
+      <c r="M51" s="32"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="3:14" ht="37.5" hidden="1" customHeight="1">
@@ -3350,6 +3336,17 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="J2:M2"/>
@@ -3366,76 +3363,68 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" scale="51" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="8" scale="34" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG3"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="18.9140625" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="15.4140625" customWidth="1"/>
-    <col min="4" max="4" width="10.75" customWidth="1"/>
-    <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" customWidth="1"/>
-    <col min="9" max="9" width="13.4140625" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.25" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="14" max="14" width="11.75" customWidth="1"/>
-    <col min="15" max="15" width="17.83203125" customWidth="1"/>
-    <col min="20" max="21" width="10.58203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="29.5546875" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="22.21875" customWidth="1"/>
+    <col min="10" max="10" width="26.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" customWidth="1"/>
+    <col min="13" max="13" width="43.109375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="16" max="16" width="14.21875" customWidth="1"/>
+    <col min="20" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="70.5" thickBot="1">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+    <row r="1" spans="1:33" ht="104.4">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="38" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="38" t="s">
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3450,69 +3439,56 @@
       <c r="M1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="39"/>
-      <c r="R1" s="40"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-    </row>
-    <row r="2" spans="1:33" ht="72.5" customHeight="1" thickBot="1">
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+    </row>
+    <row r="2" spans="1:33" ht="72.45" customHeight="1">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
-      <c r="T2" s="25"/>
-      <c r="U2" s="25"/>
-    </row>
-    <row r="3" spans="1:33" ht="72.5" customHeight="1" thickBot="1">
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="T3" s="25"/>
-      <c r="U3" s="25"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/static/export/eventList.xlsx
+++ b/src/main/resources/static/export/eventList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\IdeaProjects\myfile\fssy-management\src\main\resources\static\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D674B69D-57BD-4BF5-A22E-183B7E8CD8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2256806D-F528-458F-983C-1F354FC91582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经营管理部" sheetId="23" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
   <si>
     <t>战略职能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -561,6 +561,10 @@
   </si>
   <si>
     <t>工作职责</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -927,6 +931,15 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -965,15 +978,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1291,22 +1295,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
-      <c r="N1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1315,71 +1319,71 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="35" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="P2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="Q2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="R2" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29" t="s">
+      <c r="T2" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="51.75" customHeight="1">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1392,20 +1396,20 @@
       <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="36"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="30"/>
-      <c r="S3" s="30"/>
-      <c r="T3" s="30"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="34"/>
-      <c r="B4" s="33" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="36" t="s">
         <v>130</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1460,9 +1464,9 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="34"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1515,9 +1519,9 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="34"/>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1570,9 +1574,9 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="34"/>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1625,9 +1629,9 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="34"/>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1676,9 +1680,9 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A9" s="34"/>
-      <c r="B9" s="33"/>
-      <c r="C9" s="33"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1725,9 +1729,9 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A10" s="34"/>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1768,9 +1772,9 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A11" s="34"/>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1811,9 +1815,9 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A12" s="34"/>
-      <c r="B12" s="33"/>
-      <c r="C12" s="33"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1860,9 +1864,9 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A13" s="34"/>
-      <c r="B13" s="33"/>
-      <c r="C13" s="33" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1915,9 +1919,9 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A14" s="34"/>
-      <c r="B14" s="33"/>
-      <c r="C14" s="33"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="19" t="s">
         <v>100</v>
       </c>
@@ -1964,9 +1968,9 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A15" s="34"/>
-      <c r="B15" s="33"/>
-      <c r="C15" s="33"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
@@ -2013,9 +2017,9 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A16" s="34"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="19" t="s">
         <v>109</v>
       </c>
@@ -2056,9 +2060,9 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A17" s="34"/>
-      <c r="B17" s="33"/>
-      <c r="C17" s="33"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="18" t="s">
         <v>110</v>
       </c>
@@ -2103,9 +2107,9 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="46.5" customHeight="1">
-      <c r="A18" s="34"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="18" t="s">
         <v>111</v>
       </c>
@@ -2150,9 +2154,9 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A19" s="34"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="33"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="18" t="s">
         <v>101</v>
       </c>
@@ -2197,9 +2201,9 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A20" s="34"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="18" t="s">
         <v>114</v>
       </c>
@@ -2250,9 +2254,9 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="54" customHeight="1">
-      <c r="A21" s="34"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2299,9 +2303,9 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A22" s="34"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -2352,9 +2356,9 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1">
-      <c r="A23" s="34"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="19" t="s">
         <v>32</v>
       </c>
@@ -2405,9 +2409,9 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A24" s="34"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
@@ -2458,9 +2462,9 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A25" s="34"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2509,9 +2513,9 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A26" s="34"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="18" t="s">
         <v>113</v>
       </c>
@@ -2556,9 +2560,9 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A27" s="34"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="18" t="s">
         <v>104</v>
       </c>
@@ -2607,9 +2611,9 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="33" customHeight="1">
-      <c r="A28" s="34"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="18" t="s">
         <v>105</v>
       </c>
@@ -2658,9 +2662,9 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1">
-      <c r="A29" s="34"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="18" t="s">
         <v>106</v>
       </c>
@@ -2709,9 +2713,9 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A30" s="34"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="18" t="s">
         <v>69</v>
       </c>
@@ -2760,9 +2764,9 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A31" s="34"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
@@ -2813,9 +2817,9 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="24" customHeight="1">
-      <c r="A32" s="34"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2864,9 +2868,9 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10" t="s">
         <v>115</v>
       </c>
@@ -2907,9 +2911,9 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
@@ -2956,9 +2960,9 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="34"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10" t="s">
         <v>116</v>
       </c>
@@ -2999,9 +3003,9 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A36" s="34"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
@@ -3042,9 +3046,9 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A37" s="34"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="10" t="s">
         <v>120</v>
       </c>
@@ -3091,9 +3095,9 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A38" s="34"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
@@ -3140,9 +3144,9 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="27" customHeight="1">
-      <c r="A39" s="34"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="10" t="s">
         <v>121</v>
       </c>
@@ -3189,22 +3193,22 @@
       <c r="T39" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="41.25" customHeight="1">
-      <c r="A41" s="25" t="s">
+      <c r="A41" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="25"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="25"/>
-      <c r="K41" s="25"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="25"/>
-      <c r="N41" s="25"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:20" ht="39.75" hidden="1" customHeight="1">
       <c r="C42" s="12" t="s">
@@ -3271,14 +3275,14 @@
         <v>110</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="32"/>
-      <c r="I49" s="32"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="32"/>
-      <c r="L49" s="32"/>
-      <c r="M49" s="32"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="3:14" ht="26.25" hidden="1" customHeight="1">
@@ -3289,14 +3293,14 @@
         <v>148</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="32"/>
-      <c r="I50" s="32"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="32"/>
-      <c r="L50" s="32"/>
-      <c r="M50" s="32"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="3:14" ht="29.25" hidden="1" customHeight="1">
@@ -3307,14 +3311,14 @@
         <v>119</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="31"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
-      <c r="M51" s="32"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="3:14" ht="37.5" hidden="1" customHeight="1">
@@ -3375,7 +3379,7 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3399,32 +3403,32 @@
     <col min="20" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="104.4">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="1:33" ht="34.799999999999997">
+      <c r="A1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="25" t="s">
         <v>131</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="38" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="38" t="s">
+      <c r="F1" s="25" t="s">
+        <v>132</v>
+      </c>
+      <c r="G1" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="25" t="s">
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3448,7 +3452,7 @@
       <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" s="37"/>
+      <c r="Q1" s="24"/>
       <c r="R1" s="22"/>
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
@@ -3467,9 +3471,9 @@
       <c r="AG1" s="23"/>
     </row>
     <row r="2" spans="1:33" ht="72.45" customHeight="1">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -3480,9 +3484,9 @@
       <c r="K2" s="21"/>
       <c r="L2" s="21"/>
       <c r="M2" s="21"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
       <c r="T2" s="20"/>
       <c r="U2" s="20"/>
     </row>

--- a/src/main/resources/static/export/eventList.xlsx
+++ b/src/main/resources/static/export/eventList.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\IdeaProjects\myfile\fssy-management\src\main\resources\static\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2256806D-F528-458F-983C-1F354FC91582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B898325B-CCF9-45DE-A0CF-7FCF996434D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
   <si>
     <t>战略职能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,22 +525,6 @@
   </si>
   <si>
     <t>IT工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件价值：不合格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件价值：中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件价值：良</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>事件价值：优（事务类为合格）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -940,6 +924,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,12 +951,6 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -971,12 +961,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1295,22 +1279,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1319,71 +1303,71 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="38" t="s">
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="27" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="51.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1396,21 +1380,21 @@
       <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>130</v>
+      <c r="A4" s="39"/>
+      <c r="B4" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>13</v>
@@ -1464,9 +1448,9 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1519,9 +1503,9 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="39"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1574,9 +1558,9 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="39"/>
+      <c r="B7" s="38"/>
+      <c r="C7" s="38"/>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1629,9 +1613,9 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="39"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1680,9 +1664,9 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="38"/>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1729,9 +1713,9 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="39"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1772,9 +1756,9 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1815,9 +1799,9 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="39"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1864,9 +1848,9 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="39"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1919,9 +1903,9 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38"/>
       <c r="D14" s="19" t="s">
         <v>100</v>
       </c>
@@ -1968,9 +1952,9 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="39"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
@@ -2017,9 +2001,9 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="19" t="s">
         <v>109</v>
       </c>
@@ -2060,9 +2044,9 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="18" t="s">
         <v>110</v>
       </c>
@@ -2107,9 +2091,9 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="46.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="39"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="18" t="s">
         <v>111</v>
       </c>
@@ -2154,9 +2138,9 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="39"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="18" t="s">
         <v>101</v>
       </c>
@@ -2201,9 +2185,9 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
       <c r="D20" s="18" t="s">
         <v>114</v>
       </c>
@@ -2254,9 +2238,9 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="54" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
       <c r="D21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2303,9 +2287,9 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36" t="s">
+      <c r="A22" s="39"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -2356,9 +2340,9 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="39"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="19" t="s">
         <v>32</v>
       </c>
@@ -2409,9 +2393,9 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
@@ -2462,9 +2446,9 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="39"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2513,9 +2497,9 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="39"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="18" t="s">
         <v>113</v>
       </c>
@@ -2560,9 +2544,9 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="39"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="18" t="s">
         <v>104</v>
       </c>
@@ -2611,9 +2595,9 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="33" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="39"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="18" t="s">
         <v>105</v>
       </c>
@@ -2662,9 +2646,9 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="39"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="18" t="s">
         <v>106</v>
       </c>
@@ -2713,9 +2697,9 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="39"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
       <c r="D30" s="18" t="s">
         <v>69</v>
       </c>
@@ -2764,9 +2748,9 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="39"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
@@ -2817,9 +2801,9 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="24" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36" t="s">
+      <c r="A32" s="39"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2868,9 +2852,9 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="39"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
       <c r="D33" s="10" t="s">
         <v>115</v>
       </c>
@@ -2911,9 +2895,9 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="39"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
       <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
@@ -2960,9 +2944,9 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="39"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
       <c r="D35" s="10" t="s">
         <v>116</v>
       </c>
@@ -3003,9 +2987,9 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="39"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
       <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
@@ -3046,9 +3030,9 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="39"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
       <c r="D37" s="10" t="s">
         <v>120</v>
       </c>
@@ -3095,9 +3079,9 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="39"/>
+      <c r="B38" s="38"/>
+      <c r="C38" s="38"/>
       <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
@@ -3144,9 +3128,9 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="27" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="39"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
       <c r="D39" s="10" t="s">
         <v>121</v>
       </c>
@@ -3193,22 +3177,22 @@
       <c r="T39" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="41.25" customHeight="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="32"/>
+      <c r="L41" s="32"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32"/>
     </row>
     <row r="42" spans="1:20" ht="39.75" hidden="1" customHeight="1">
       <c r="C42" s="12" t="s">
@@ -3275,14 +3259,14 @@
         <v>110</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
+      <c r="F49" s="36"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="37"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="37"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="37"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="3:14" ht="26.25" hidden="1" customHeight="1">
@@ -3293,14 +3277,14 @@
         <v>148</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="F50" s="36"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="37"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="37"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="3:14" ht="29.25" hidden="1" customHeight="1">
@@ -3311,14 +3295,14 @@
         <v>119</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
+      <c r="F51" s="36"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="37"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="37"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="37"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="3:14" ht="37.5" hidden="1" customHeight="1">
@@ -3340,17 +3324,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="J2:M2"/>
@@ -3367,6 +3340,17 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3376,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AG2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -3393,17 +3377,13 @@
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.5546875" customWidth="1"/>
     <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="10" width="26.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.109375" customWidth="1"/>
-    <col min="13" max="13" width="43.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
-    <col min="16" max="16" width="14.21875" customWidth="1"/>
-    <col min="20" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" customWidth="1"/>
+    <col min="11" max="11" width="17.77734375" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="34.799999999999997">
+    <row r="1" spans="1:29" ht="34.799999999999997">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -3411,7 +3391,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="25" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D1" s="25" t="s">
         <v>3</v>
@@ -3420,7 +3400,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G1" s="25" t="s">
         <v>88</v>
@@ -3432,28 +3412,20 @@
         <v>45</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" s="24"/>
-      <c r="R1" s="22"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
       <c r="S1" s="23"/>
       <c r="T1" s="23"/>
       <c r="U1" s="23"/>
@@ -3465,12 +3437,8 @@
       <c r="AA1" s="23"/>
       <c r="AB1" s="23"/>
       <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-    </row>
-    <row r="2" spans="1:33" ht="72.45" customHeight="1">
+    </row>
+    <row r="2" spans="1:29" ht="72.45" customHeight="1">
       <c r="A2" s="26"/>
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
@@ -3480,15 +3448,11 @@
       <c r="G2" s="21"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/resources/static/export/eventList.xlsx
+++ b/src/main/resources/static/export/eventList.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\IdeaProjects\myfile\fssy-management\src\main\resources\static\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B898325B-CCF9-45DE-A0CF-7FCF996434D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A68EBF-4BB4-4EED-BF54-F708FF3EDDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经营管理部" sheetId="23" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="24" r:id="rId2"/>
+    <sheet name="事件清单" sheetId="24" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">经营管理部!$A$2:$T$39</definedName>
@@ -924,43 +924,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1279,22 +1279,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1303,71 +1303,71 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1">
-      <c r="A2" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="27" t="s">
+      <c r="F2" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="27" t="s">
+      <c r="H2" s="32" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="32" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="29" t="s">
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="27" t="s">
+      <c r="P2" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="27" t="s">
+      <c r="Q2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="27" t="s">
+      <c r="R2" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="32" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="51.75" customHeight="1">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1380,20 +1380,20 @@
       <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="30"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="39"/>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="37"/>
+      <c r="B4" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="36" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1448,9 +1448,9 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="39"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1503,9 +1503,9 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="39"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
+      <c r="A6" s="37"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1558,9 +1558,9 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="39"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
+      <c r="A7" s="37"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1613,9 +1613,9 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="39"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38" t="s">
+      <c r="A8" s="37"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1664,9 +1664,9 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A9" s="39"/>
-      <c r="B9" s="38"/>
-      <c r="C9" s="38"/>
+      <c r="A9" s="37"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1713,9 +1713,9 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
+      <c r="A10" s="37"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1756,9 +1756,9 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A11" s="39"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
+      <c r="A11" s="37"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1799,9 +1799,9 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A12" s="39"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1848,9 +1848,9 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A13" s="39"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38" t="s">
+      <c r="A13" s="37"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1903,9 +1903,9 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A14" s="39"/>
-      <c r="B14" s="38"/>
-      <c r="C14" s="38"/>
+      <c r="A14" s="37"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="19" t="s">
         <v>100</v>
       </c>
@@ -1952,9 +1952,9 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A15" s="39"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
+      <c r="A15" s="37"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
@@ -2001,9 +2001,9 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A16" s="39"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
+      <c r="A16" s="37"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="19" t="s">
         <v>109</v>
       </c>
@@ -2044,9 +2044,9 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A17" s="39"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="18" t="s">
         <v>110</v>
       </c>
@@ -2091,9 +2091,9 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="46.5" customHeight="1">
-      <c r="A18" s="39"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
+      <c r="A18" s="37"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="18" t="s">
         <v>111</v>
       </c>
@@ -2138,9 +2138,9 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A19" s="39"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
+      <c r="A19" s="37"/>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="18" t="s">
         <v>101</v>
       </c>
@@ -2185,9 +2185,9 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="18" t="s">
         <v>114</v>
       </c>
@@ -2238,9 +2238,9 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="54" customHeight="1">
-      <c r="A21" s="39"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="38"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2287,9 +2287,9 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38" t="s">
+      <c r="A22" s="37"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -2340,9 +2340,9 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1">
-      <c r="A23" s="39"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="19" t="s">
         <v>32</v>
       </c>
@@ -2393,9 +2393,9 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A24" s="39"/>
-      <c r="B24" s="38"/>
-      <c r="C24" s="38"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
@@ -2446,9 +2446,9 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A25" s="39"/>
-      <c r="B25" s="38"/>
-      <c r="C25" s="38"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2497,9 +2497,9 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A26" s="39"/>
-      <c r="B26" s="38"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="37"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="18" t="s">
         <v>113</v>
       </c>
@@ -2544,9 +2544,9 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A27" s="39"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="18" t="s">
         <v>104</v>
       </c>
@@ -2595,9 +2595,9 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="33" customHeight="1">
-      <c r="A28" s="39"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="38"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="18" t="s">
         <v>105</v>
       </c>
@@ -2646,9 +2646,9 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1">
-      <c r="A29" s="39"/>
-      <c r="B29" s="38"/>
-      <c r="C29" s="38"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="18" t="s">
         <v>106</v>
       </c>
@@ -2697,9 +2697,9 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A30" s="39"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="38"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="18" t="s">
         <v>69</v>
       </c>
@@ -2748,9 +2748,9 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A31" s="39"/>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
@@ -2801,9 +2801,9 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="24" customHeight="1">
-      <c r="A32" s="39"/>
-      <c r="B32" s="38"/>
-      <c r="C32" s="38" t="s">
+      <c r="A32" s="37"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="36" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2852,9 +2852,9 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A33" s="39"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="38"/>
+      <c r="A33" s="37"/>
+      <c r="B33" s="36"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="10" t="s">
         <v>115</v>
       </c>
@@ -2895,9 +2895,9 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A34" s="39"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="38"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
@@ -2944,9 +2944,9 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="39"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="10" t="s">
         <v>116</v>
       </c>
@@ -2987,9 +2987,9 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A36" s="39"/>
-      <c r="B36" s="38"/>
-      <c r="C36" s="38"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
@@ -3030,9 +3030,9 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A37" s="39"/>
-      <c r="B37" s="38"/>
-      <c r="C37" s="38"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="10" t="s">
         <v>120</v>
       </c>
@@ -3079,9 +3079,9 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A38" s="39"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
@@ -3128,9 +3128,9 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="27" customHeight="1">
-      <c r="A39" s="39"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="38"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="10" t="s">
         <v>121</v>
       </c>
@@ -3177,22 +3177,22 @@
       <c r="T39" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="41.25" customHeight="1">
-      <c r="A41" s="32" t="s">
+      <c r="A41" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="32"/>
-      <c r="C41" s="32"/>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
-      <c r="F41" s="32"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="32"/>
-      <c r="I41" s="32"/>
-      <c r="J41" s="32"/>
-      <c r="K41" s="32"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="32"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
+      <c r="J41" s="28"/>
+      <c r="K41" s="28"/>
+      <c r="L41" s="28"/>
+      <c r="M41" s="28"/>
+      <c r="N41" s="28"/>
     </row>
     <row r="42" spans="1:20" ht="39.75" hidden="1" customHeight="1">
       <c r="C42" s="12" t="s">
@@ -3259,14 +3259,14 @@
         <v>110</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="37"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="37"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="35"/>
+      <c r="H49" s="35"/>
+      <c r="I49" s="35"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="35"/>
+      <c r="L49" s="35"/>
+      <c r="M49" s="35"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="3:14" ht="26.25" hidden="1" customHeight="1">
@@ -3277,14 +3277,14 @@
         <v>148</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="37"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="37"/>
-      <c r="M50" s="37"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="35"/>
+      <c r="H50" s="35"/>
+      <c r="I50" s="35"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="35"/>
+      <c r="L50" s="35"/>
+      <c r="M50" s="35"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="3:14" ht="29.25" hidden="1" customHeight="1">
@@ -3295,14 +3295,14 @@
         <v>119</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="36"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="37"/>
-      <c r="M51" s="37"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="35"/>
+      <c r="H51" s="35"/>
+      <c r="I51" s="35"/>
+      <c r="J51" s="35"/>
+      <c r="K51" s="35"/>
+      <c r="L51" s="35"/>
+      <c r="M51" s="35"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="3:14" ht="37.5" hidden="1" customHeight="1">
@@ -3324,6 +3324,17 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="J2:M2"/>
@@ -3340,17 +3351,6 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3362,8 +3362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>

--- a/src/main/resources/static/export/eventList.xlsx
+++ b/src/main/resources/static/export/eventList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MI\IdeaProjects\myfile\fssy-management\src\main\resources\static\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20A68EBF-4BB4-4EED-BF54-F708FF3EDDD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E62C92-7253-4787-9A1B-F860E8215002}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="885" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="经营管理部" sheetId="23" r:id="rId1"/>
@@ -24,20 +24,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="129">
   <si>
     <t>战略职能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -842,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -906,61 +898,58 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1258,43 +1247,42 @@
       <selection sqref="A1:N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="14.125" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="2" width="14.109375" style="6"/>
-    <col min="3" max="3" width="24.77734375" style="11" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" style="6" customWidth="1"/>
-    <col min="5" max="5" width="54.5546875" style="6" customWidth="1"/>
-    <col min="6" max="7" width="14.109375" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.21875" style="11" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="11" customWidth="1"/>
-    <col min="10" max="10" width="9.109375" style="11" customWidth="1"/>
-    <col min="11" max="11" width="8.21875" style="11" customWidth="1"/>
+    <col min="1" max="2" width="14.125" style="6"/>
+    <col min="3" max="3" width="24.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="64.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="54.5" style="6" customWidth="1"/>
+    <col min="6" max="7" width="14.125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="11" customWidth="1"/>
+    <col min="9" max="9" width="14.125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="11" customWidth="1"/>
+    <col min="11" max="11" width="8.25" style="11" customWidth="1"/>
     <col min="12" max="12" width="8" style="11" customWidth="1"/>
-    <col min="13" max="13" width="14.5546875" style="11" customWidth="1"/>
-    <col min="14" max="14" width="14.44140625" style="11" customWidth="1"/>
-    <col min="15" max="15" width="14.77734375" style="6" customWidth="1"/>
-    <col min="16" max="16" width="11.109375" style="6" customWidth="1"/>
-    <col min="17" max="21" width="14.109375" style="6" customWidth="1"/>
-    <col min="22" max="16384" width="14.109375" style="6"/>
+    <col min="13" max="14" width="14.5" style="11" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="6" customWidth="1"/>
+    <col min="16" max="16" width="11.125" style="6" customWidth="1"/>
+    <col min="17" max="21" width="14.125" style="6" customWidth="1"/>
+    <col min="22" max="16384" width="14.125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="27"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
       <c r="Q1" s="15"/>
@@ -1303,71 +1291,71 @@
       <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="30" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="32" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="32" t="s">
+      <c r="E2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="26" t="s">
         <v>88</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="32" t="s">
+      <c r="I2" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="38" t="s">
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="P2" s="32" t="s">
+      <c r="P2" s="26" t="s">
         <v>77</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="Q2" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="R2" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="S2" s="32" t="s">
+      <c r="S2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="32" t="s">
+      <c r="T2" s="26" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="51.75" customHeight="1">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
       <c r="J3" s="1" t="s">
         <v>60</v>
       </c>
@@ -1380,20 +1368,20 @@
       <c r="M3" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="39"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
+      <c r="N3" s="29"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
     </row>
     <row r="4" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="37"/>
-      <c r="B4" s="36" t="s">
+      <c r="A4" s="38"/>
+      <c r="B4" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="37" t="s">
         <v>126</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1448,9 +1436,9 @@
       <c r="T4" s="3"/>
     </row>
     <row r="5" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="37"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="2" t="s">
         <v>16</v>
       </c>
@@ -1503,9 +1491,9 @@
       <c r="T5" s="3"/>
     </row>
     <row r="6" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="37"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
       <c r="D6" s="2" t="s">
         <v>18</v>
       </c>
@@ -1558,9 +1546,9 @@
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
       <c r="D7" s="2" t="s">
         <v>99</v>
       </c>
@@ -1613,9 +1601,9 @@
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36" t="s">
+      <c r="A8" s="38"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1664,9 +1652,9 @@
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="2" t="s">
         <v>24</v>
       </c>
@@ -1713,9 +1701,9 @@
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="43.5" customHeight="1">
-      <c r="A10" s="37"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="2" t="s">
         <v>26</v>
       </c>
@@ -1756,9 +1744,9 @@
       <c r="T10" s="3"/>
     </row>
     <row r="11" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="2" t="s">
         <v>28</v>
       </c>
@@ -1799,9 +1787,9 @@
       <c r="T11" s="3"/>
     </row>
     <row r="12" spans="1:20" ht="53.25" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="2" t="s">
         <v>30</v>
       </c>
@@ -1848,9 +1836,9 @@
       <c r="T12" s="3"/>
     </row>
     <row r="13" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="18" t="s">
@@ -1903,9 +1891,9 @@
       <c r="T13" s="3"/>
     </row>
     <row r="14" spans="1:20" ht="25.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="37"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="19" t="s">
         <v>100</v>
       </c>
@@ -1952,9 +1940,9 @@
       <c r="T14" s="3"/>
     </row>
     <row r="15" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A15" s="37"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
       <c r="D15" s="19" t="s">
         <v>34</v>
       </c>
@@ -2001,9 +1989,9 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:20" ht="44.25" customHeight="1">
-      <c r="A16" s="37"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
       <c r="D16" s="19" t="s">
         <v>109</v>
       </c>
@@ -2044,9 +2032,9 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="45.75" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
       <c r="D17" s="18" t="s">
         <v>110</v>
       </c>
@@ -2091,9 +2079,9 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="46.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
       <c r="D18" s="18" t="s">
         <v>111</v>
       </c>
@@ -2138,9 +2126,9 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="42.75" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
       <c r="D19" s="18" t="s">
         <v>101</v>
       </c>
@@ -2185,9 +2173,9 @@
       <c r="T19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="48.75" customHeight="1">
-      <c r="A20" s="37"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
       <c r="D20" s="18" t="s">
         <v>114</v>
       </c>
@@ -2238,9 +2226,9 @@
       <c r="T20" s="3"/>
     </row>
     <row r="21" spans="1:20" ht="54" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
       <c r="D21" s="19" t="s">
         <v>39</v>
       </c>
@@ -2287,9 +2275,9 @@
       <c r="T21" s="3"/>
     </row>
     <row r="22" spans="1:20" ht="29.25" customHeight="1">
-      <c r="A22" s="37"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="18" t="s">
@@ -2340,9 +2328,9 @@
       <c r="T22" s="3"/>
     </row>
     <row r="23" spans="1:20" ht="21" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="19" t="s">
         <v>32</v>
       </c>
@@ -2393,9 +2381,9 @@
       <c r="T23" s="3"/>
     </row>
     <row r="24" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A24" s="37"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="37"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="19" t="s">
         <v>41</v>
       </c>
@@ -2446,9 +2434,9 @@
       <c r="T24" s="3"/>
     </row>
     <row r="25" spans="1:20" ht="24.75" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="18" t="s">
         <v>103</v>
       </c>
@@ -2497,9 +2485,9 @@
       <c r="T25" s="3"/>
     </row>
     <row r="26" spans="1:20" ht="35.25" customHeight="1">
-      <c r="A26" s="37"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="18" t="s">
         <v>113</v>
       </c>
@@ -2544,9 +2532,9 @@
       <c r="T26" s="3"/>
     </row>
     <row r="27" spans="1:20" ht="37.5" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="18" t="s">
         <v>104</v>
       </c>
@@ -2595,9 +2583,9 @@
       <c r="T27" s="3"/>
     </row>
     <row r="28" spans="1:20" ht="33" customHeight="1">
-      <c r="A28" s="37"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="18" t="s">
         <v>105</v>
       </c>
@@ -2646,9 +2634,9 @@
       <c r="T28" s="3"/>
     </row>
     <row r="29" spans="1:20" ht="27" customHeight="1">
-      <c r="A29" s="37"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="18" t="s">
         <v>106</v>
       </c>
@@ -2697,9 +2685,9 @@
       <c r="T29" s="3"/>
     </row>
     <row r="30" spans="1:20" ht="47.25" customHeight="1">
-      <c r="A30" s="37"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="37"/>
       <c r="D30" s="18" t="s">
         <v>69</v>
       </c>
@@ -2748,9 +2736,9 @@
       <c r="T30" s="3"/>
     </row>
     <row r="31" spans="1:20" ht="30.75" customHeight="1">
-      <c r="A31" s="37"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="37"/>
       <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
@@ -2801,9 +2789,9 @@
       <c r="T31" s="3"/>
     </row>
     <row r="32" spans="1:20" ht="24" customHeight="1">
-      <c r="A32" s="37"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="37" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="10" t="s">
@@ -2852,9 +2840,9 @@
       <c r="T32" s="3"/>
     </row>
     <row r="33" spans="1:20" ht="23.25" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="10" t="s">
         <v>115</v>
       </c>
@@ -2895,9 +2883,9 @@
       <c r="T33" s="3"/>
     </row>
     <row r="34" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A34" s="37"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="10" t="s">
         <v>119</v>
       </c>
@@ -2944,9 +2932,9 @@
       <c r="T34" s="3"/>
     </row>
     <row r="35" spans="1:20" ht="18" customHeight="1">
-      <c r="A35" s="37"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="10" t="s">
         <v>116</v>
       </c>
@@ -2987,9 +2975,9 @@
       <c r="T35" s="3"/>
     </row>
     <row r="36" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A36" s="37"/>
-      <c r="B36" s="36"/>
-      <c r="C36" s="36"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="10" t="s">
         <v>49</v>
       </c>
@@ -3030,9 +3018,9 @@
       <c r="T36" s="3"/>
     </row>
     <row r="37" spans="1:20" ht="19.5" customHeight="1">
-      <c r="A37" s="37"/>
-      <c r="B37" s="36"/>
-      <c r="C37" s="36"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="10" t="s">
         <v>120</v>
       </c>
@@ -3079,9 +3067,9 @@
       <c r="T37" s="3"/>
     </row>
     <row r="38" spans="1:20" ht="21.75" customHeight="1">
-      <c r="A38" s="37"/>
-      <c r="B38" s="36"/>
-      <c r="C38" s="36"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="10" t="s">
         <v>50</v>
       </c>
@@ -3128,9 +3116,9 @@
       <c r="T38" s="3"/>
     </row>
     <row r="39" spans="1:20" ht="27" customHeight="1">
-      <c r="A39" s="37"/>
-      <c r="B39" s="36"/>
-      <c r="C39" s="36"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="10" t="s">
         <v>121</v>
       </c>
@@ -3177,22 +3165,22 @@
       <c r="T39" s="3"/>
     </row>
     <row r="41" spans="1:20" ht="41.25" customHeight="1">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="31" t="s">
         <v>96</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
-      <c r="E41" s="28"/>
-      <c r="F41" s="28"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
-      <c r="J41" s="28"/>
-      <c r="K41" s="28"/>
-      <c r="L41" s="28"/>
-      <c r="M41" s="28"/>
-      <c r="N41" s="28"/>
+      <c r="B41" s="31"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="31"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="31"/>
     </row>
     <row r="42" spans="1:20" ht="39.75" hidden="1" customHeight="1">
       <c r="C42" s="12" t="s">
@@ -3259,14 +3247,14 @@
         <v>110</v>
       </c>
       <c r="E49" s="14"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="35"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="36"/>
+      <c r="H49" s="36"/>
+      <c r="I49" s="36"/>
+      <c r="J49" s="36"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
       <c r="N49" s="16"/>
     </row>
     <row r="50" spans="3:14" ht="26.25" hidden="1" customHeight="1">
@@ -3277,14 +3265,14 @@
         <v>148</v>
       </c>
       <c r="E50" s="14"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="35"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="36"/>
+      <c r="H50" s="36"/>
+      <c r="I50" s="36"/>
+      <c r="J50" s="36"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
       <c r="N50" s="16"/>
     </row>
     <row r="51" spans="3:14" ht="29.25" hidden="1" customHeight="1">
@@ -3295,14 +3283,14 @@
         <v>119</v>
       </c>
       <c r="E51" s="14"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
-      <c r="H51" s="35"/>
-      <c r="I51" s="35"/>
-      <c r="J51" s="35"/>
-      <c r="K51" s="35"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="35"/>
+      <c r="F51" s="35"/>
+      <c r="G51" s="36"/>
+      <c r="H51" s="36"/>
+      <c r="I51" s="36"/>
+      <c r="J51" s="36"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
       <c r="N51" s="16"/>
     </row>
     <row r="52" spans="3:14" ht="37.5" hidden="1" customHeight="1">
@@ -3324,17 +3312,6 @@
     <filterColumn colId="11" showButton="0"/>
   </autoFilter>
   <mergeCells count="27">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A41:N41"/>
     <mergeCell ref="J2:M2"/>
@@ -3351,6 +3328,17 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="F2:F3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3360,99 +3348,94 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AB2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" customWidth="1"/>
-    <col min="5" max="5" width="29.5546875" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" customWidth="1"/>
-    <col min="7" max="7" width="24.6640625" customWidth="1"/>
-    <col min="8" max="8" width="16.5546875" customWidth="1"/>
-    <col min="9" max="9" width="22.21875" customWidth="1"/>
-    <col min="10" max="10" width="11.77734375" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" customWidth="1"/>
-    <col min="16" max="17" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="15.5" customWidth="1"/>
+    <col min="4" max="4" width="26.375" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="14.125" customWidth="1"/>
+    <col min="7" max="7" width="24.625" customWidth="1"/>
+    <col min="8" max="8" width="22.25" customWidth="1"/>
+    <col min="9" max="9" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="17.75" customWidth="1"/>
+    <col min="11" max="11" width="14.25" customWidth="1"/>
+    <col min="15" max="16" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="34.799999999999997">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="1:28" ht="37.5">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>128</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="H1" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>45</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>98</v>
+      </c>
       <c r="J1" s="1" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="M1" s="24"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="21"/>
       <c r="N1" s="22"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-    </row>
-    <row r="2" spans="1:29" ht="72.45" customHeight="1">
-      <c r="A2" s="26"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+      <c r="X1" s="22"/>
+      <c r="Y1" s="22"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+    </row>
+    <row r="2" spans="1:28" ht="72.400000000000006" customHeight="1">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
       <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
